--- a/tests/artifact/data/Mobile-CreateSupplier.data.xlsx
+++ b/tests/artifact/data/Mobile-CreateSupplier.data.xlsx
@@ -2396,8 +2396,8 @@
   <sheetPr/>
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="B143" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="B204" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="2"/>
